--- a/Simulations and Calculations/ValueCalculations.xlsx
+++ b/Simulations and Calculations/ValueCalculations.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhu\Documents\UBC 2018\ELEC 491\PSIM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonhu\Documents\UBC 2018\ELEC 491\Github\SolarFlorez\Simulations and Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BE1365-AA36-4FDB-880C-CFFEE5588124}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6355A8AB-8186-44A7-945A-34503AD3DD02}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8112" xr2:uid="{67BF1C96-2BA9-42EE-97D3-A2169B5795C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -563,8 +564,8 @@
         <v>4.9999999999999996E-6</v>
       </c>
       <c r="J3">
-        <f>(F3*D3)/(8*H3*G3*B3)</f>
-        <v>2.3148148148148151E-3</v>
+        <f>(F3*D3)/(H3*G3*B3)</f>
+        <v>1.8518518518518521E-2</v>
       </c>
       <c r="K3">
         <f>B3/D3</f>
